--- a/unit_testing/output dataframes/raw_mr_tests_withMissingData.xlsx
+++ b/unit_testing/output dataframes/raw_mr_tests_withMissingData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_current\NPSoftware\GitHub\Unit testing\output dataframes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_current\MAPAS\GitHub\unit_testing\output dataframes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F943F5CA-5678-4F69-9F60-9DE28E38493F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23A66AF-0D05-4A92-A7E1-82A672A414BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,22 +64,22 @@
     <t>var3</t>
   </si>
   <si>
-    <t>[7.95,30.12]</t>
-  </si>
-  <si>
-    <t>[1.15,1.75]</t>
-  </si>
-  <si>
-    <t>[3.78,19.00]</t>
-  </si>
-  <si>
-    <t>[-0.11,0.06]</t>
-  </si>
-  <si>
-    <t>[0.33,0.51]</t>
-  </si>
-  <si>
-    <t>[0.04,0.22]</t>
+    <t>[7.95, 30.12]</t>
+  </si>
+  <si>
+    <t>[1.15, 1.75]</t>
+  </si>
+  <si>
+    <t>[3.78, 19.00]</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.06]</t>
+  </si>
+  <si>
+    <t>[0.33, 0.51]</t>
+  </si>
+  <si>
+    <t>[0.04, 0.22]</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
